--- a/Assets/CaomaoFramework/Editor/NewbieEditorWindow/ExcelData/NewbieHelpTipStepData.xlsx
+++ b/Assets/CaomaoFramework/Editor/NewbieEditorWindow/ExcelData/NewbieHelpTipStepData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8970"/>
+    <workbookView windowWidth="21000" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,51 +15,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+  <si>
+    <t>NewbieHelpTipStepData</t>
+  </si>
   <si>
     <t>Dialogs</t>
   </si>
   <si>
-    <t>TestField1</t>
-  </si>
-  <si>
-    <t>TestField2</t>
-  </si>
-  <si>
-    <t>list</t>
+    <t>list&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Sheet2</t>
+  </si>
+  <si>
+    <t>NewbieHelpDialogTip</t>
+  </si>
+  <si>
+    <t>DialogContent</t>
+  </si>
+  <si>
+    <t>CharacterName</t>
+  </si>
+  <si>
+    <t>CharacterPath</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Sheet2</t>
-  </si>
-  <si>
-    <t>fef</t>
-  </si>
-  <si>
-    <t>NewbieHelpDialogTip</t>
-  </si>
-  <si>
-    <t>DialogContent</t>
-  </si>
-  <si>
-    <t>CharacterName</t>
-  </si>
-  <si>
-    <t>CharacterPath</t>
+    <t>fwegwegewgwe</t>
   </si>
   <si>
     <t>诸葛亮</t>
   </si>
   <si>
-    <t>fefe</t>
+    <t>zhugeliang</t>
+  </si>
+  <si>
+    <t>r3253252345</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>caocao</t>
   </si>
 </sst>
 </file>
@@ -67,9 +67,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -82,15 +82,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,22 +98,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,10 +112,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,19 +137,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -181,13 +195,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -195,15 +202,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,7 +211,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,19 +234,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,157 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,41 +428,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +476,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -500,16 +500,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -533,10 +533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,133 +545,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,64 +1030,43 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="19.6083333333333" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
     <col min="2" max="2" width="17.1833333333333" customWidth="1"/>
     <col min="3" max="3" width="15.775" customWidth="1"/>
     <col min="4" max="4" width="19.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>3434</v>
-      </c>
-      <c r="D3">
-        <v>3434.22</v>
-      </c>
-    </row>
-    <row r="5" spans="7:7">
-      <c r="G5" s="1"/>
+    <row r="6" spans="7:7">
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1099,13 +1078,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
@@ -1114,39 +1093,50 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Assets/CaomaoFramework/Editor/NewbieEditorWindow/ExcelData/NewbieHelpTipStepData.xlsx
+++ b/Assets/CaomaoFramework/Editor/NewbieEditorWindow/ExcelData/NewbieHelpTipStepData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8955"/>
+    <workbookView windowWidth="21000" windowHeight="8955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>诸葛亮</t>
   </si>
   <si>
-    <t>zhugeliang</t>
+    <t>zhugeliang[zhugeliang]</t>
   </si>
   <si>
     <t>r3253252345</t>
@@ -59,7 +59,7 @@
     <t>曹操</t>
   </si>
   <si>
-    <t>caocao</t>
+    <t>caocao[caocao]</t>
   </si>
 </sst>
 </file>
@@ -68,8 +68,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -81,6 +81,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -96,9 +111,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,114 +165,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,90 +234,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,85 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +430,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -437,16 +448,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -463,15 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,22 +496,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -517,11 +519,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,10 +533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,133 +545,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,7 +1032,7 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1080,15 +1080,15 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
